--- a/biology/Zoologie/Candoia/Candoia.xlsx
+++ b/biology/Zoologie/Candoia/Candoia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Candoia est un genre de serpents de la famille des Boidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Candoia est un genre de serpents de la famille des Boidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent des Samoa en Polynésie jusqu'à Sulawesi en Indonésie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent des Samoa en Polynésie jusqu'à Sulawesi en Indonésie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des serpents principalement nocturnes. Ils ont un corps épais, avec une tête triangulaire et aplatie. Les couleurs varient selon les individus, mais les tons de brun et de noir reviennent souvent.
 Ils peuvent atteindre de 60 à 180 centimètres, les mâles étant plus petits que les femelles. Ils se nourrissent de petits amphibiens et lézards.
@@ -575,9 +591,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (1 août 2011)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (1 août 2011) :
 Candoia aspera (Günther, 1877)
 Candoia bibroni (Duméril &amp; Bibron, 1844)
 Candoia carinata (Schneider, 1801)
@@ -610,7 +628,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gray, 1842 : Synopsis of the species of prehensile-tailed Snakes, or family Boidae.  Zoological Miscellany, London, vol. 2, p. 41-46 (texte intégral).</t>
         </is>
